--- a/数据/2023届本科毕业生就业指导课成绩初稿（20230522）.xlsx
+++ b/数据/2023届本科毕业生就业指导课成绩初稿（20230522）.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowWidth="27945" windowHeight="11760"/>
+    <workbookView windowWidth="27945" windowHeight="11145"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -13,7 +13,20 @@
   <definedNames>
     <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">Sheet1!$A$1:$H$1350</definedName>
   </definedNames>
-  <calcPr calcId="144525"/>
+  <calcPr calcId="191029"/>
+  <extLst>
+    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
+      <xcalcf:calcFeatures>
+        <xcalcf:feature name="microsoft.com:RD"/>
+        <xcalcf:feature name="microsoft.com:Single"/>
+        <xcalcf:feature name="microsoft.com:FV"/>
+        <xcalcf:feature name="microsoft.com:CNMTM"/>
+        <xcalcf:feature name="microsoft.com:LET_WF"/>
+        <xcalcf:feature name="microsoft.com:LAMBDA_WF"/>
+        <xcalcf:feature name="microsoft.com:ARRAYTEXT_WF"/>
+      </xcalcf:calcFeatures>
+    </ext>
+  </extLst>
 </workbook>
 </file>
 
@@ -8712,7 +8725,7 @@
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:xr9="http://schemas.microsoft.com/office/spreadsheetml/2016/revision9">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr9="http://schemas.microsoft.com/office/spreadsheetml/2016/revision9" mc:Ignorable="xr9">
   <numFmts count="4">
     <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
@@ -9761,7 +9774,7 @@
   <dimension ref="A1:H1350"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="P22" sqref="P22"/>
+      <selection activeCell="A1" sqref="A1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.64166666666667" defaultRowHeight="13.5" outlineLevelCol="7"/>
@@ -9770,7 +9783,7 @@
     <col min="2" max="2" width="8" style="6" customWidth="1"/>
     <col min="3" max="3" width="12.25" style="7" customWidth="1"/>
     <col min="4" max="4" width="16" style="7" customWidth="1"/>
-    <col min="5" max="5" width="13" style="6" customWidth="1"/>
+    <col min="5" max="5" width="19.375" style="6" customWidth="1"/>
     <col min="6" max="6" width="12.5" style="6" customWidth="1"/>
     <col min="7" max="7" width="8.75833333333333" style="5" customWidth="1"/>
     <col min="8" max="8" width="17.2583333333333" style="5" customWidth="1"/>
